--- a/Artifacts/Recypy_Deliverable_3_SprintBacklog.xlsx
+++ b/Artifacts/Recypy_Deliverable_3_SprintBacklog.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RecyPy\artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A24F9BD-F3BF-43A4-86F4-8A5E12DADC7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4523EE50-5775-4AE6-91D7-FDC729EA37F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3090" yWindow="3045" windowWidth="25365" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1710" yWindow="2745" windowWidth="25365" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint i" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>ID</t>
   </si>
@@ -110,6 +121,9 @@
   </si>
   <si>
     <t>Spencer 100%</t>
+  </si>
+  <si>
+    <t>Updated Database</t>
   </si>
 </sst>
 </file>
@@ -290,6 +304,51 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -299,24 +358,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -325,36 +369,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1519,7 +1533,7 @@
   <dimension ref="A1:IV37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1528,11 +1542,11 @@
     <col min="2" max="2" width="17.7109375" style="13" customWidth="1"/>
     <col min="3" max="3" width="34.7109375" style="13" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="49.140625" style="28" customWidth="1"/>
+    <col min="5" max="5" width="49.140625" style="15" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" style="9" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="28" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="15" customWidth="1"/>
     <col min="8" max="8" width="27.85546875" style="8" customWidth="1"/>
-    <col min="9" max="9" width="42.140625" style="28" customWidth="1"/>
+    <col min="9" max="9" width="42.140625" style="15" customWidth="1"/>
     <col min="10" max="256" width="14.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1575,16 +1589,16 @@
       <c r="C2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="29">
         <v>1</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="27" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="4"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="29" t="s">
+      <c r="G2" s="19"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="16" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1598,12 +1612,12 @@
       <c r="C3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="20"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="28"/>
       <c r="F3" s="6"/>
       <c r="G3" s="12"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="30" t="s">
+      <c r="I3" s="17" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1617,12 +1631,12 @@
       <c r="C4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="20"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="28"/>
       <c r="F4" s="6"/>
       <c r="G4" s="12"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="30" t="s">
+      <c r="I4" s="17" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1636,14 +1650,14 @@
       <c r="C5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="27" t="s">
+      <c r="D5" s="31"/>
+      <c r="E5" s="14" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="12"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="14" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1657,16 +1671,16 @@
       <c r="C6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="25">
         <v>2</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="33" t="s">
         <v>20</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="12"/>
       <c r="H6" s="7"/>
-      <c r="I6" s="27" t="s">
+      <c r="I6" s="14" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1680,12 +1694,12 @@
       <c r="C7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="24"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="34"/>
       <c r="F7" s="6"/>
       <c r="G7" s="12"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="27" t="s">
+      <c r="I7" s="14" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1699,12 +1713,12 @@
       <c r="C8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="25"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="35"/>
       <c r="F8" s="6"/>
       <c r="G8" s="12"/>
       <c r="H8" s="7"/>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="14" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1718,14 +1732,14 @@
       <c r="C9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="27" t="s">
+      <c r="D9" s="26"/>
+      <c r="E9" s="14" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="27"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="31" t="s">
+      <c r="I9" s="18" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1733,20 +1747,20 @@
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="32">
+      <c r="B10" s="23">
         <v>1</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="25">
         <v>3</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>28</v>
       </c>
       <c r="F10" s="6"/>
-      <c r="G10" s="17">
+      <c r="G10" s="25">
         <v>4</v>
       </c>
       <c r="H10" s="7">
@@ -1760,304 +1774,314 @@
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="33"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="19"/>
+      <c r="D11" s="32"/>
       <c r="E11" s="22"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="19"/>
+      <c r="G11" s="26"/>
       <c r="H11" s="7">
         <v>1</v>
       </c>
       <c r="I11" s="22"/>
     </row>
     <row r="12" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="27"/>
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="26"/>
+      <c r="E12" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="F12" s="6"/>
       <c r="G12" s="12"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="27"/>
+      <c r="I12" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="27"/>
+      <c r="E13" s="14"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="27"/>
+      <c r="G13" s="14"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="27"/>
+      <c r="I13" s="14"/>
     </row>
     <row r="14" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="27"/>
+      <c r="E14" s="14"/>
       <c r="F14" s="6"/>
       <c r="G14" s="12"/>
       <c r="H14" s="7"/>
-      <c r="I14" s="27"/>
+      <c r="I14" s="14"/>
     </row>
     <row r="15" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="27"/>
+      <c r="E15" s="14"/>
       <c r="F15" s="6"/>
       <c r="G15" s="12"/>
       <c r="H15" s="7"/>
-      <c r="I15" s="27"/>
+      <c r="I15" s="14"/>
     </row>
     <row r="16" spans="1:9" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="27"/>
+      <c r="E16" s="14"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="27"/>
+      <c r="G16" s="14"/>
       <c r="H16" s="7"/>
-      <c r="I16" s="27"/>
+      <c r="I16" s="14"/>
     </row>
     <row r="17" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="27"/>
+      <c r="E17" s="14"/>
       <c r="F17" s="6"/>
       <c r="G17" s="12"/>
       <c r="H17" s="7"/>
-      <c r="I17" s="27"/>
+      <c r="I17" s="14"/>
     </row>
     <row r="18" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="27"/>
+      <c r="E18" s="14"/>
       <c r="F18" s="6"/>
       <c r="G18" s="12"/>
       <c r="H18" s="7"/>
-      <c r="I18" s="27"/>
+      <c r="I18" s="14"/>
     </row>
     <row r="19" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="27"/>
+      <c r="E19" s="14"/>
       <c r="F19" s="6"/>
       <c r="G19" s="12"/>
       <c r="H19" s="7"/>
-      <c r="I19" s="27"/>
+      <c r="I19" s="14"/>
     </row>
     <row r="20" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="27"/>
+      <c r="E20" s="14"/>
       <c r="F20" s="6"/>
       <c r="G20" s="12"/>
       <c r="H20" s="7"/>
-      <c r="I20" s="27"/>
+      <c r="I20" s="14"/>
     </row>
     <row r="21" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="27"/>
+      <c r="E21" s="14"/>
       <c r="F21" s="6"/>
       <c r="G21" s="12"/>
       <c r="H21" s="7"/>
-      <c r="I21" s="27"/>
+      <c r="I21" s="14"/>
     </row>
     <row r="22" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="27"/>
+      <c r="E22" s="14"/>
       <c r="F22" s="6"/>
       <c r="G22" s="12"/>
       <c r="H22" s="7"/>
-      <c r="I22" s="27"/>
+      <c r="I22" s="14"/>
     </row>
     <row r="23" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
       <c r="D23" s="7"/>
-      <c r="E23" s="27"/>
+      <c r="E23" s="14"/>
       <c r="F23" s="6"/>
       <c r="G23" s="12"/>
       <c r="H23" s="7"/>
-      <c r="I23" s="27"/>
+      <c r="I23" s="14"/>
     </row>
     <row r="24" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="7"/>
-      <c r="E24" s="27"/>
+      <c r="E24" s="14"/>
       <c r="F24" s="6"/>
       <c r="G24" s="12"/>
       <c r="H24" s="7"/>
-      <c r="I24" s="27"/>
+      <c r="I24" s="14"/>
     </row>
     <row r="25" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
       <c r="D25" s="7"/>
-      <c r="E25" s="27"/>
+      <c r="E25" s="14"/>
       <c r="F25" s="6"/>
       <c r="G25" s="12"/>
       <c r="H25" s="7"/>
-      <c r="I25" s="27"/>
+      <c r="I25" s="14"/>
     </row>
     <row r="26" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="7"/>
-      <c r="E26" s="27"/>
+      <c r="E26" s="14"/>
       <c r="F26" s="6"/>
       <c r="G26" s="12"/>
       <c r="H26" s="7"/>
-      <c r="I26" s="27"/>
+      <c r="I26" s="14"/>
     </row>
     <row r="27" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="7"/>
-      <c r="E27" s="27"/>
+      <c r="E27" s="14"/>
       <c r="F27" s="6"/>
       <c r="G27" s="12"/>
       <c r="H27" s="7"/>
-      <c r="I27" s="27"/>
+      <c r="I27" s="14"/>
     </row>
     <row r="28" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="7"/>
-      <c r="E28" s="27"/>
+      <c r="E28" s="14"/>
       <c r="F28" s="6"/>
       <c r="G28" s="12"/>
       <c r="H28" s="7"/>
-      <c r="I28" s="27"/>
+      <c r="I28" s="14"/>
     </row>
     <row r="29" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="7"/>
-      <c r="E29" s="27"/>
+      <c r="E29" s="14"/>
       <c r="F29" s="6"/>
       <c r="G29" s="12"/>
       <c r="H29" s="7"/>
-      <c r="I29" s="27"/>
+      <c r="I29" s="14"/>
     </row>
     <row r="30" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
       <c r="D30" s="7"/>
-      <c r="E30" s="27"/>
+      <c r="E30" s="14"/>
       <c r="F30" s="6"/>
       <c r="G30" s="12"/>
       <c r="H30" s="7"/>
-      <c r="I30" s="27"/>
+      <c r="I30" s="14"/>
     </row>
     <row r="31" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="7"/>
-      <c r="E31" s="27"/>
+      <c r="E31" s="14"/>
       <c r="F31" s="6"/>
       <c r="G31" s="12"/>
       <c r="H31" s="7"/>
-      <c r="I31" s="27"/>
+      <c r="I31" s="14"/>
     </row>
     <row r="32" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
       <c r="D32" s="7"/>
-      <c r="E32" s="27"/>
+      <c r="E32" s="14"/>
       <c r="F32" s="6"/>
       <c r="G32" s="12"/>
       <c r="H32" s="7"/>
-      <c r="I32" s="27"/>
+      <c r="I32" s="14"/>
     </row>
     <row r="33" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="7"/>
-      <c r="E33" s="27"/>
+      <c r="E33" s="14"/>
       <c r="F33" s="6"/>
       <c r="G33" s="12"/>
       <c r="H33" s="7"/>
-      <c r="I33" s="27"/>
+      <c r="I33" s="14"/>
     </row>
     <row r="34" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
       <c r="D34" s="7"/>
-      <c r="E34" s="27"/>
+      <c r="E34" s="14"/>
       <c r="F34" s="6"/>
       <c r="G34" s="12"/>
       <c r="H34" s="7"/>
-      <c r="I34" s="27"/>
+      <c r="I34" s="14"/>
     </row>
     <row r="35" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="7"/>
-      <c r="E35" s="27"/>
+      <c r="E35" s="14"/>
       <c r="F35" s="6"/>
       <c r="G35" s="12"/>
       <c r="H35" s="7"/>
-      <c r="I35" s="27"/>
+      <c r="I35" s="14"/>
     </row>
     <row r="36" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="7"/>
-      <c r="E36" s="27"/>
+      <c r="E36" s="14"/>
       <c r="F36" s="6"/>
       <c r="G36" s="12"/>
       <c r="H36" s="7"/>
-      <c r="I36" s="27"/>
+      <c r="I36" s="14"/>
     </row>
     <row r="37" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" s="7"/>
-      <c r="E37" s="27"/>
+      <c r="E37" s="14"/>
       <c r="F37" s="6"/>
       <c r="G37" s="12"/>
       <c r="H37" s="7"/>
-      <c r="I37" s="27"/>
+      <c r="I37" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2068,8 +2092,8 @@
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="D6:D9"/>
     <mergeCell ref="E6:E8"/>
-    <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D10:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
